--- a/biology/Zoologie/Arthur_Francis_Hemming/Arthur_Francis_Hemming.xlsx
+++ b/biology/Zoologie/Arthur_Francis_Hemming/Arthur_Francis_Hemming.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Francis Hemming (9 février 1893 - 20 février 1964) est un entomologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet éminent systématicien est, de 1937 à 1958, secrétaire de la Commission internationale de nomenclature zoologique.
 Né le 9 février 1893 dans le quartier de Kensington à Londres, fils d'Arthur George Hemming (1866-1951) et de son épouse Celia Ursula Helen, née Watson (1868-1946).
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hemming, A.F. (1929). Notes on the generic names of the Holarctic Lycaenidae (Lep. Rhop.). Ann. Mag. Nat. Hist. 10 (3): 217-245
 Hemming, F. (1933). On the types of certain butterfly genera. Entomologist 66 : 196-200
@@ -568,8 +584,8 @@
 Hemming, F. (1943). Notes on the generic nomenclature of the Lepidoptera Rhopalocera, II. Proc. R. Entomol. Soc. Lond. (B) 12 (2) : 23-30
 Hemming, F. (1945). Hewitson (W.C.), Illustr. New Spec. Exot. Butterflies: supplementary note on the composition and dates of publication of certain parts. J. Soc. Bibliogr. Nat. Hist. 2 (2) : 51-53
 Hemming, F. (1960). Annotationes Lepidopterologicae. Pts 1-2. London : Hepburn &amp; Sons : 1-72
-Hemming, F. (1964). Annotationes Lepidopterologicae. Pts 3-5. London : Hepburn &amp; Sons : [73] + 180 + vii
-Hemming, F. (1965). Telicota Moore, [1881] (Insecta, Lepidoptera, Hesperiidae): proposed designation of a type-species under the plenary powers. Z.N.(S.) 1684. Bull. Zool. Nomencl. 22 (1) : 79
+Hemming, F. (1964). Annotationes Lepidopterologicae. Pts 3-5. London : Hepburn &amp; Sons :  + 180 + vii
+Hemming, F. (1965). Telicota Moore,  (Insecta, Lepidoptera, Hesperiidae): proposed designation of a type-species under the plenary powers. Z.N.(S.) 1684. Bull. Zool. Nomencl. 22 (1) : 79
 Hemming, F. (1967). The generic names of the butterflies and their type-species (Lepidoptera: Rhopalocera). Bull. Br. Mus. (Nat. Hist.) Entomol. (Suppl.) 9 : 1-509</t>
         </is>
       </c>
